--- a/doc/memoria_stack_heap.xlsx
+++ b/doc/memoria_stack_heap.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ANGELA\Desktop\CPP_tardes\repositorio\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AD32EAC-99A4-4020-A781-3079ADAA56FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89909FC3-1103-4316-AB9F-D74DD1AD1CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15990" xr2:uid="{8CC7A3FF-6530-4CCE-BEF4-21206239A761}"/>
+    <workbookView xWindow="24075" yWindow="1335" windowWidth="15375" windowHeight="13650" xr2:uid="{8CC7A3FF-6530-4CCE-BEF4-21206239A761}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>heap</t>
   </si>
@@ -75,13 +75,49 @@
   </si>
   <si>
     <t>new / delete</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>valor</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>numero</t>
+  </si>
+  <si>
+    <t>0004</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>0008</t>
+  </si>
+  <si>
+    <t>pasoPorCopia</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>pasoPorPtr</t>
+  </si>
+  <si>
+    <t>ptr</t>
+  </si>
+  <si>
+    <t>de 100 a 200</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +129,13 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -133,14 +176,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,42 +526,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88D792F-AFEE-480C-8147-930B953B9999}">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
       <c r="D2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -518,22 +569,22 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -542,7 +593,7 @@
       <c r="B12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
     </row>
@@ -553,7 +604,7 @@
       <c r="B13" s="1">
         <v>45</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -564,8 +615,116 @@
       <c r="B14" s="1">
         <v>34</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1">
+        <v>101</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="1">
+        <v>100</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
